--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Nppc-Npr3.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Nppc-Npr3.xlsx
@@ -540,10 +540,10 @@
         <v>4.037942</v>
       </c>
       <c r="I2">
-        <v>0.4408299556445331</v>
+        <v>0.3424902588620627</v>
       </c>
       <c r="J2">
-        <v>0.4408299556445331</v>
+        <v>0.3424902588620627</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -552,28 +552,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.2990286666666667</v>
+        <v>0.1036536666666667</v>
       </c>
       <c r="N2">
-        <v>0.8970860000000001</v>
+        <v>0.310961</v>
       </c>
       <c r="O2">
-        <v>0.2003670139510866</v>
+        <v>0.08145093039891602</v>
       </c>
       <c r="P2">
-        <v>0.2003670139510866</v>
+        <v>0.08145093039891602</v>
       </c>
       <c r="Q2">
-        <v>0.4024868041124445</v>
+        <v>0.1395158313624444</v>
       </c>
       <c r="R2">
-        <v>3.622381237012001</v>
+        <v>1.255642482262</v>
       </c>
       <c r="S2">
-        <v>0.08832778187268504</v>
+        <v>0.0278961502368806</v>
       </c>
       <c r="T2">
-        <v>0.08832778187268506</v>
+        <v>0.0278961502368806</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,10 +602,10 @@
         <v>4.037942</v>
       </c>
       <c r="I3">
-        <v>0.4408299556445331</v>
+        <v>0.3424902588620627</v>
       </c>
       <c r="J3">
-        <v>0.4408299556445331</v>
+        <v>0.3424902588620627</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,10 +620,10 @@
         <v>3.022968</v>
       </c>
       <c r="O3">
-        <v>0.675189526343838</v>
+        <v>0.7918149097994615</v>
       </c>
       <c r="P3">
-        <v>0.675189526343838</v>
+        <v>0.7918149097994616</v>
       </c>
       <c r="Q3">
         <v>1.356285494650667</v>
@@ -632,10 +632,10 @@
         <v>12.206569451856</v>
       </c>
       <c r="S3">
-        <v>0.2976437689498074</v>
+        <v>0.2711888934280584</v>
       </c>
       <c r="T3">
-        <v>0.2976437689498074</v>
+        <v>0.2711888934280585</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,40 +664,40 @@
         <v>4.037942</v>
       </c>
       <c r="I4">
-        <v>0.4408299556445331</v>
+        <v>0.3424902588620627</v>
       </c>
       <c r="J4">
-        <v>0.4408299556445331</v>
+        <v>0.3424902588620627</v>
       </c>
       <c r="K4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.18572</v>
+        <v>0.1612806666666667</v>
       </c>
       <c r="N4">
-        <v>0.55716</v>
+        <v>0.483842</v>
       </c>
       <c r="O4">
-        <v>0.1244434597050755</v>
+        <v>0.1267341598016225</v>
       </c>
       <c r="P4">
-        <v>0.1244434597050755</v>
+        <v>0.1267341598016225</v>
       </c>
       <c r="Q4">
-        <v>0.2499755294133333</v>
+        <v>0.2170806592404444</v>
       </c>
       <c r="R4">
-        <v>2.24977976472</v>
+        <v>1.953725933164</v>
       </c>
       <c r="S4">
-        <v>0.05485840482204069</v>
+        <v>0.04340521519712371</v>
       </c>
       <c r="T4">
-        <v>0.0548584048220407</v>
+        <v>0.04340521519712371</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,16 +720,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.707307</v>
+        <v>2.584001666666667</v>
       </c>
       <c r="H5">
-        <v>5.121921</v>
+        <v>7.752005</v>
       </c>
       <c r="I5">
-        <v>0.5591700443554668</v>
+        <v>0.6575097411379373</v>
       </c>
       <c r="J5">
-        <v>0.5591700443554669</v>
+        <v>0.6575097411379373</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -738,28 +738,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.2990286666666667</v>
+        <v>0.1036536666666667</v>
       </c>
       <c r="N5">
-        <v>0.8970860000000001</v>
+        <v>0.310961</v>
       </c>
       <c r="O5">
-        <v>0.2003670139510866</v>
+        <v>0.08145093039891602</v>
       </c>
       <c r="P5">
-        <v>0.2003670139510866</v>
+        <v>0.08145093039891602</v>
       </c>
       <c r="Q5">
-        <v>0.5105337358006666</v>
+        <v>0.2678412474227778</v>
       </c>
       <c r="R5">
-        <v>4.594803622206</v>
+        <v>2.410571226805</v>
       </c>
       <c r="S5">
-        <v>0.1120392320784015</v>
+        <v>0.05355478016203542</v>
       </c>
       <c r="T5">
-        <v>0.1120392320784016</v>
+        <v>0.05355478016203542</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,16 +782,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.707307</v>
+        <v>2.584001666666667</v>
       </c>
       <c r="H6">
-        <v>5.121921</v>
+        <v>7.752005</v>
       </c>
       <c r="I6">
-        <v>0.5591700443554668</v>
+        <v>0.6575097411379373</v>
       </c>
       <c r="J6">
-        <v>0.5591700443554669</v>
+        <v>0.6575097411379373</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,22 +806,22 @@
         <v>3.022968</v>
       </c>
       <c r="O6">
-        <v>0.675189526343838</v>
+        <v>0.7918149097994615</v>
       </c>
       <c r="P6">
-        <v>0.675189526343838</v>
+        <v>0.7918149097994616</v>
       </c>
       <c r="Q6">
-        <v>1.720378142392</v>
+        <v>2.603784783426666</v>
       </c>
       <c r="R6">
-        <v>15.483403281528</v>
+        <v>23.43406305084</v>
       </c>
       <c r="S6">
-        <v>0.3775457573940305</v>
+        <v>0.520626016371403</v>
       </c>
       <c r="T6">
-        <v>0.3775457573940306</v>
+        <v>0.5206260163714032</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,46 +844,46 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1.707307</v>
+        <v>2.584001666666667</v>
       </c>
       <c r="H7">
-        <v>5.121921</v>
+        <v>7.752005</v>
       </c>
       <c r="I7">
-        <v>0.5591700443554668</v>
+        <v>0.6575097411379373</v>
       </c>
       <c r="J7">
-        <v>0.5591700443554669</v>
+        <v>0.6575097411379373</v>
       </c>
       <c r="K7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M7">
-        <v>0.18572</v>
+        <v>0.1612806666666667</v>
       </c>
       <c r="N7">
-        <v>0.55716</v>
+        <v>0.483842</v>
       </c>
       <c r="O7">
-        <v>0.1244434597050755</v>
+        <v>0.1267341598016225</v>
       </c>
       <c r="P7">
-        <v>0.1244434597050755</v>
+        <v>0.1267341598016225</v>
       </c>
       <c r="Q7">
-        <v>0.31708105604</v>
+        <v>0.4167495114677777</v>
       </c>
       <c r="R7">
-        <v>2.85372950436</v>
+        <v>3.75074560321</v>
       </c>
       <c r="S7">
-        <v>0.06958505488303483</v>
+        <v>0.08332894460449877</v>
       </c>
       <c r="T7">
-        <v>0.06958505488303485</v>
+        <v>0.08332894460449877</v>
       </c>
     </row>
   </sheetData>
